--- a/tasmota_gpios.xlsx
+++ b/tasmota_gpios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risshend\Documents\PyCharm\TasmoHAB\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risshend\Documents\PyCharm\TasmoHAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A332A7E-D42A-4199-B0E8-893CDCD1A667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD481F9-F0AB-4117-9B06-ACD715E3C3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F3C50841-5268-435D-B49C-FDB083A34FAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="398">
   <si>
     <t>User</t>
   </si>
@@ -1138,9 +1138,6 @@
   </si>
   <si>
     <t>TASMOTA (https://tasmota.github.io/docs/GPIO-Conversion/)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>''</t>
@@ -1212,6 +1209,36 @@
   </si>
   <si>
     <t>Description:</t>
+  </si>
+  <si>
+    <t>tags_temp+tags_hum</t>
+  </si>
+  <si>
+    <t>feature_binary</t>
+  </si>
+  <si>
+    <t>features_light</t>
+  </si>
+  <si>
+    <t>tags_switch</t>
+  </si>
+  <si>
+    <t>tags_light</t>
+  </si>
+  <si>
+    <t>meta_light</t>
+  </si>
+  <si>
+    <t>meta_switch</t>
+  </si>
+  <si>
+    <t>'switch'</t>
+  </si>
+  <si>
+    <t>'dimmablelight'</t>
+  </si>
+  <si>
+    <t>'IR'</t>
   </si>
 </sst>
 </file>
@@ -1738,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1D03B4-8406-4F6C-82A5-D4DC8C59677A}">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E220" workbookViewId="0">
+      <selection activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="71.7109375" defaultRowHeight="15"/>
@@ -1761,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1775,7 +1802,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1815,10 +1842,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="8"/>
@@ -1832,7 +1859,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1847,7 +1874,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1862,7 +1889,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1877,7 +1904,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1947,7 +1974,7 @@
         <v>364</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1965,23 +1992,23 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>"'"&amp;B13&amp;"':{'name':'"&amp;C13&amp;"', 'std_type':item_types.index('"&amp;F13&amp;"'), 'feature':"&amp;G13&amp;", 'meta':"&amp;H13&amp;", 'tags':"&amp;I13&amp;" , 'icon':"&amp;J13&amp;"},"</f>
-        <v>'1':{'name':'User', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <f>"'"&amp;B13&amp;"':{'name':'"&amp;C13&amp;"', 'std_type':item_types.index('"&amp;F13&amp;"'), 'feature':"&amp;G13&amp;", 'meta':"&amp;H13&amp;", 'tags':"&amp;I13&amp;", 'icon':"&amp;J13&amp;"},"</f>
+        <v>'1':{'name':'User', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1999,26 +2026,26 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f t="shared" ref="K14:K77" si="0">"'"&amp;B14&amp;"':{'name':'"&amp;C14&amp;"', 'std_type':item_types.index('"&amp;F14&amp;"'), 'feature':"&amp;G14&amp;", 'meta':"&amp;H14&amp;", 'tags':"&amp;I14&amp;" , 'icon':"&amp;J14&amp;"},"</f>
-        <v>'0':{'name':'None', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <f t="shared" ref="K14:K77" si="0">"'"&amp;B14&amp;"':{'name':'"&amp;C14&amp;"', 'std_type':item_types.index('"&amp;F14&amp;"'), 'feature':"&amp;G14&amp;", 'meta':"&amp;H14&amp;", 'tags':"&amp;I14&amp;", 'icon':"&amp;J14&amp;"},"</f>
+        <v>'0':{'name':'None', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5">
       <c r="A15" s="25">
         <v>1</v>
       </c>
@@ -2033,26 +2060,26 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1184':{'name':'DHT11', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>'1184':{'name':'DHT11', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':tags_temp+tags_hum, 'icon':''},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5">
       <c r="A16" s="25">
         <v>2</v>
       </c>
@@ -2067,26 +2094,26 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G16" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1216':{'name':'AM2301', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>'1216':{'name':'AM2301', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':tags_temp+tags_hum, 'icon':''},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17" s="25">
         <v>3</v>
       </c>
@@ -2101,23 +2128,23 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G17" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1248':{'name':'SI7021', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1248':{'name':'SI7021', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.5">
@@ -2135,23 +2162,23 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G18" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1312':{'name':'DS18x20', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1312':{'name':'DS18x20', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.5">
@@ -2169,23 +2196,23 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'608':{'name':'I2C SCL', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'608':{'name':'I2C SCL', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5">
@@ -2203,23 +2230,23 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G20" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'640':{'name':'I2C SDA', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'640':{'name':'I2C SDA', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5">
@@ -2239,21 +2266,21 @@
       <c r="F21" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1376':{'name':'WS2812', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1376':{'name':'WS2812', 'std_type':item_types.index('Dimmer'), 'feature':'', 'meta':'', 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2271,23 +2298,23 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G22" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1056':{'name':'IRsend', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1056':{'name':'IRsend', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'IR', 'icon':''},</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2308,20 +2335,20 @@
         <v>20</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'160':{'name':'Switch1', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'160':{'name':'Switch1', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2342,20 +2369,20 @@
         <v>20</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'161':{'name':'Switch2', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'161':{'name':'Switch2', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2376,20 +2403,20 @@
         <v>20</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'162':{'name':'Switch3', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'162':{'name':'Switch3', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2410,20 +2437,20 @@
         <v>20</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'163':{'name':'Switch4', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'163':{'name':'Switch4', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2444,20 +2471,20 @@
         <v>20</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'164':{'name':'Switch5', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'164':{'name':'Switch5', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2478,20 +2505,20 @@
         <v>20</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'165':{'name':'Switch6', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'165':{'name':'Switch6', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2512,20 +2539,20 @@
         <v>20</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'166':{'name':'Switch7', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'166':{'name':'Switch7', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2546,20 +2573,20 @@
         <v>20</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'167':{'name':'Switch8', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'167':{'name':'Switch8', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2580,20 +2607,20 @@
         <v>20</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'32':{'name':'Button1', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'32':{'name':'Button1', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2614,20 +2641,20 @@
         <v>20</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'33':{'name':'Button2', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'33':{'name':'Button2', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2648,20 +2675,20 @@
         <v>20</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'34':{'name':'Button3', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'34':{'name':'Button3', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2682,20 +2709,20 @@
         <v>20</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'35':{'name':'Button4', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'35':{'name':'Button4', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2716,20 +2743,20 @@
         <v>20</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'224':{'name':'Relay1', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'224':{'name':'Relay1', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2750,20 +2777,20 @@
         <v>20</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'225':{'name':'Relay2', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'225':{'name':'Relay2', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2784,20 +2811,20 @@
         <v>20</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'226':{'name':'Relay3', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'226':{'name':'Relay3', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2818,20 +2845,20 @@
         <v>20</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'227':{'name':'Relay4', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'227':{'name':'Relay4', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2852,20 +2879,20 @@
         <v>20</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'228':{'name':'Relay5', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'228':{'name':'Relay5', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2886,20 +2913,20 @@
         <v>20</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'229':{'name':'Relay6', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'229':{'name':'Relay6', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2920,20 +2947,20 @@
         <v>20</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'230':{'name':'Relay7', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'230':{'name':'Relay7', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2954,20 +2981,20 @@
         <v>20</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'231':{'name':'Relay8', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'231':{'name':'Relay8', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2988,20 +3015,20 @@
         <v>20</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'256':{'name':'Relay1i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'256':{'name':'Relay1i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3022,20 +3049,20 @@
         <v>20</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'257':{'name':'Relay2i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'257':{'name':'Relay2i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3056,20 +3083,20 @@
         <v>20</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'258':{'name':'Relay3i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'258':{'name':'Relay3i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3090,20 +3117,20 @@
         <v>20</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'259':{'name':'Relay4i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'259':{'name':'Relay4i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3124,20 +3151,20 @@
         <v>20</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'260':{'name':'Relay5i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'260':{'name':'Relay5i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3158,20 +3185,20 @@
         <v>20</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'261':{'name':'Relay6i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'261':{'name':'Relay6i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3192,20 +3219,20 @@
         <v>20</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'262':{'name':'Relay7i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'262':{'name':'Relay7i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3226,20 +3253,20 @@
         <v>20</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'263':{'name':'Relay8i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'263':{'name':'Relay8i', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3260,20 +3287,20 @@
         <v>366</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'416':{'name':'PWM1', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'416':{'name':'PWM1', 'std_type':item_types.index('Dimmer'), 'feature':features_light, 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3294,20 +3321,20 @@
         <v>366</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'417':{'name':'PWM2', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'417':{'name':'PWM2', 'std_type':item_types.index('Dimmer'), 'feature':features_light, 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3328,20 +3355,20 @@
         <v>366</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'418':{'name':'PWM3', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'418':{'name':'PWM3', 'std_type':item_types.index('Dimmer'), 'feature':features_light, 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3362,20 +3389,20 @@
         <v>366</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'419':{'name':'PWM4', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'419':{'name':'PWM4', 'std_type':item_types.index('Dimmer'), 'feature':features_light, 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3396,20 +3423,20 @@
         <v>366</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'420':{'name':'PWM5', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'420':{'name':'PWM5', 'std_type':item_types.index('Dimmer'), 'feature':features_light, 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3427,23 +3454,23 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G56" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'352':{'name':'Counter1', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'352':{'name':'Counter1', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3461,23 +3488,23 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G57" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'353':{'name':'Counter2', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'353':{'name':'Counter2', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3495,23 +3522,23 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G58" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'354':{'name':'Counter3', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'354':{'name':'Counter3', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3529,23 +3556,23 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G59" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'355':{'name':'Counter4', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'355':{'name':'Counter4', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3565,21 +3592,21 @@
       <c r="F60" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'448':{'name':'PWM1i', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'448':{'name':'PWM1i', 'std_type':item_types.index('Dimmer'), 'feature':'', 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3599,21 +3626,21 @@
       <c r="F61" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'449':{'name':'PWM2i', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'449':{'name':'PWM2i', 'std_type':item_types.index('Dimmer'), 'feature':'', 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3633,21 +3660,21 @@
       <c r="F62" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'450':{'name':'PWM3i', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'450':{'name':'PWM3i', 'std_type':item_types.index('Dimmer'), 'feature':'', 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3667,21 +3694,21 @@
       <c r="F63" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'451':{'name':'PWM4i', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'451':{'name':'PWM4i', 'std_type':item_types.index('Dimmer'), 'feature':'', 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3701,24 +3728,24 @@
       <c r="F64" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="K64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'452':{'name':'PWM5i', 'std_type':item_types.index('Dimmer'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>'452':{'name':'PWM5i', 'std_type':item_types.index('Dimmer'), 'feature':'', 'meta':meta_light, 'tags':tags_light, 'icon':'dimmablelight'},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="28.5">
       <c r="A65" s="25">
         <v>51</v>
       </c>
@@ -3733,23 +3760,23 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G65" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G65" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1088':{'name':'IRrecv', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1088':{'name':'IRrecv', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3770,20 +3797,20 @@
         <v>20</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'288':{'name':'Led1', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'288':{'name':'Led1', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3804,20 +3831,20 @@
         <v>20</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K67" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'289':{'name':'Led2', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'289':{'name':'Led2', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3838,20 +3865,20 @@
         <v>20</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K68" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'290':{'name':'Led3', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'290':{'name':'Led3', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3872,20 +3899,20 @@
         <v>20</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K69" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'291':{'name':'Led4', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'291':{'name':'Led4', 'std_type':item_types.index('Switch'), 'feature':feature_binary, 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3903,23 +3930,23 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G70" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K70" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'320':{'name':'Led1i', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'320':{'name':'Led1i', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3937,23 +3964,23 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G71" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G71" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K71" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'321':{'name':'Led2i', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'321':{'name':'Led2i', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3971,23 +3998,23 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G72" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J72" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K72" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'322':{'name':'Led3i', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'322':{'name':'Led3i', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4005,23 +4032,23 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G73" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G73" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K73" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'323':{'name':'Led4i', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'323':{'name':'Led4i', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4039,23 +4066,23 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G74" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K74" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1408':{'name':'MHZ Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1408':{'name':'MHZ Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4073,26 +4100,26 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G75" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G75" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K75" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1440':{'name':'MHZ Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>'1440':{'name':'MHZ Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="28.5">
       <c r="A76" s="25">
         <v>62</v>
       </c>
@@ -4107,26 +4134,26 @@
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G76" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G76" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K76" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1472':{'name':'PZEM0XX Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>'1472':{'name':'PZEM0XX Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.5">
       <c r="A77" s="25">
         <v>63</v>
       </c>
@@ -4141,23 +4168,23 @@
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G77" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K77" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>'1504':{'name':'PZEM004 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1504':{'name':'PZEM004 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4175,23 +4202,23 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G78" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K78" s="3" t="str">
-        <f t="shared" ref="K78:K141" si="1">"'"&amp;B78&amp;"':{'name':'"&amp;C78&amp;"', 'std_type':item_types.index('"&amp;F78&amp;"'), 'feature':"&amp;G78&amp;", 'meta':"&amp;H78&amp;", 'tags':"&amp;I78&amp;" , 'icon':"&amp;J78&amp;"},"</f>
-        <v>'1600':{'name':'SAir Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <f t="shared" ref="K78:K141" si="1">"'"&amp;B78&amp;"':{'name':'"&amp;C78&amp;"', 'std_type':item_types.index('"&amp;F78&amp;"'), 'feature':"&amp;G78&amp;", 'meta':"&amp;H78&amp;", 'tags':"&amp;I78&amp;", 'icon':"&amp;J78&amp;"},"</f>
+        <v>'1600':{'name':'SAir Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4209,23 +4236,23 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G79" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1632':{'name':'SAir Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1632':{'name':'SAir Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4243,23 +4270,23 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G80" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'768':{'name':'SPI CS', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'768':{'name':'SPI CS', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4277,23 +4304,23 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G81" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G81" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J81" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'800':{'name':'SPI DC', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'800':{'name':'SPI DC', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4311,23 +4338,23 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G82" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'992':{'name':'BkLight', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'992':{'name':'BkLight', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4345,23 +4372,23 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G83" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J83" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1696':{'name':'PMS5003', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1696':{'name':'PMS5003', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="28.5">
@@ -4379,23 +4406,23 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G84" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1760':{'name':'SDS0X1 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1760':{'name':'SDS0X1 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4413,23 +4440,23 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G85" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1792':{'name':'SerBr Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1792':{'name':'SerBr Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4447,26 +4474,26 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G86" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1824':{'name':'SerBr Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>'1824':{'name':'SerBr Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="28.5">
       <c r="A87" s="25">
         <v>73</v>
       </c>
@@ -4481,23 +4508,23 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G87" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G87" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1856':{'name':'SR04 Tri', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1856':{'name':'SR04 Tri', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4515,23 +4542,23 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G88" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1888':{'name':'SR04 Ech', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1888':{'name':'SR04 Ech', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="28.5">
@@ -4549,23 +4576,23 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G89" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G89" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1920':{'name':'SDMx20 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1920':{'name':'SDMx20 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="28.5">
@@ -4583,23 +4610,23 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G90" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J90" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1952':{'name':'SDMx20 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1952':{'name':'SDMx20 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="28.5">
@@ -4617,23 +4644,23 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G91" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J91" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1984':{'name':'SDM630 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1984':{'name':'SDM630 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="28.5">
@@ -4651,23 +4678,23 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G92" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G92" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J92" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2016':{'name':'SDM630 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2016':{'name':'SDM630 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4685,23 +4712,23 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G93" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G93" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2048':{'name':'TM16 CLK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2048':{'name':'TM16 CLK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4719,23 +4746,23 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G94" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G94" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2080':{'name':'TM16 DIO', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2080':{'name':'TM16 DIO', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4753,23 +4780,23 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G95" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G95" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J95" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2112':{'name':'TM16 STB', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2112':{'name':'TM16 STB', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4789,21 +4816,21 @@
       <c r="F96" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J96" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'192':{'name':'Switch1n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'192':{'name':'Switch1n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4823,21 +4850,21 @@
       <c r="F97" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G97" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J97" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'193':{'name':'Switch2n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'193':{'name':'Switch2n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4857,21 +4884,21 @@
       <c r="F98" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G98" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J98" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'194':{'name':'Switch3n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'194':{'name':'Switch3n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4891,21 +4918,21 @@
       <c r="F99" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J99" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'195':{'name':'Switch4n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'195':{'name':'Switch4n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4925,21 +4952,21 @@
       <c r="F100" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'196':{'name':'Switch5n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'196':{'name':'Switch5n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4959,21 +4986,21 @@
       <c r="F101" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G101" s="17" t="s">
+      <c r="G101" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J101" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'197':{'name':'Switch6n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'197':{'name':'Switch6n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4993,21 +5020,21 @@
       <c r="F102" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G102" s="17" t="s">
+      <c r="G102" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'198':{'name':'Switch7n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'198':{'name':'Switch7n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5027,21 +5054,21 @@
       <c r="F103" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J103" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'199':{'name':'Switch8n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'199':{'name':'Switch8n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5061,21 +5088,21 @@
       <c r="F104" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'64':{'name':'Button1n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'64':{'name':'Button1n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5095,21 +5122,21 @@
       <c r="F105" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="17" t="s">
+      <c r="G105" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J105" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'65':{'name':'Button2n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'65':{'name':'Button2n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5129,21 +5156,21 @@
       <c r="F106" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'66':{'name':'Button3n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'66':{'name':'Button3n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5163,21 +5190,21 @@
       <c r="F107" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'67':{'name':'Button4n', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'67':{'name':'Button4n', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5195,23 +5222,23 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G108" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G108" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'384':{'name':'Counter1n', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'384':{'name':'Counter1n', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5229,23 +5256,23 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G109" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G109" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J109" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'385':{'name':'Counter2n', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'385':{'name':'Counter2n', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5263,23 +5290,23 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G110" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G110" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J110" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'386':{'name':'Counter3n', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'386':{'name':'Counter3n', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5297,26 +5324,26 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G111" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G111" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'387':{'name':'Counter4n', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>'387':{'name':'Counter4n', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="28.5">
       <c r="A112" s="25">
         <v>98</v>
       </c>
@@ -5331,26 +5358,26 @@
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G112" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G112" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J112" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1536':{'name':'PZEM016 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>'1536':{'name':'PZEM016 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="28.5">
       <c r="A113" s="25">
         <v>99</v>
       </c>
@@ -5365,23 +5392,23 @@
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G113" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G113" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1568':{'name':'PZEM017 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1568':{'name':'PZEM017 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5399,23 +5426,23 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G114" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G114" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2144':{'name':'MP3 Player', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2144':{'name':'MP3 Player', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="28.5">
@@ -5433,23 +5460,23 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G115" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G115" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1728':{'name':'SDS0X1 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1728':{'name':'SDS0X1 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5467,23 +5494,23 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G116" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G116" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J116" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2176':{'name':'HX711 SCK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2176':{'name':'HX711 SCK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5501,26 +5528,26 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G117" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G117" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J117" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2208':{'name':'HX711 DAT', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>'2208':{'name':'HX711 DAT', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="28.5">
       <c r="A118" s="25">
         <v>104</v>
       </c>
@@ -5535,23 +5562,23 @@
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G118" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G118" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J118" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2240':{'name':'TX20', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2240':{'name':'TX20', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="42.75">
@@ -5569,23 +5596,23 @@
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G119" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G119" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J119" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1120':{'name':'RFSend', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1120':{'name':'RFSend', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="42.75">
@@ -5603,23 +5630,23 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G120" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G120" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I120" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J120" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'1152':{'name':'RFrecv', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1152':{'name':'RFrecv', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5637,23 +5664,23 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G121" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G121" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J121" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2272':{'name':'Tuya Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2272':{'name':'Tuya Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5671,23 +5698,23 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G122" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G122" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J122" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2304':{'name':'Tuya Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2304':{'name':'Tuya Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5705,23 +5732,23 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G123" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G123" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J123" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2336':{'name':'MGC3130 Xfr', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2336':{'name':'MGC3130 Xfr', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5739,23 +5766,23 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G124" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G124" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J124" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2368':{'name':'MGC3130 Rst', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2368':{'name':'MGC3130 Rst', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5773,23 +5800,23 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G125" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G125" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J125" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'832':{'name':'SSPI MISO', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'832':{'name':'SSPI MISO', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -5807,23 +5834,23 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G126" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G126" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J126" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'864':{'name':'SSPI MOSI', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'864':{'name':'SSPI MOSI', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -5841,23 +5868,23 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G127" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G127" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J127" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'896':{'name':'SSPI SCLK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'896':{'name':'SSPI SCLK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -5875,23 +5902,23 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G128" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G128" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J128" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'928':{'name':'SSPI CS', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'928':{'name':'SSPI CS', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5909,23 +5936,23 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G129" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G129" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J129" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'960':{'name':'SSPI DC', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'960':{'name':'SSPI DC', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5943,23 +5970,23 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G130" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G130" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J130" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2400':{'name':'RF Sensor', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2400':{'name':'RF Sensor', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5977,23 +6004,23 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G131" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G131" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J131" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K131" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2432':{'name':'AZ Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2432':{'name':'AZ Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6011,23 +6038,23 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G132" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G132" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I132" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J132" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K132" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2464':{'name':'AZ Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2464':{'name':'AZ Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="28.5">
@@ -6045,23 +6072,23 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G133" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G133" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J133" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K133" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2496':{'name':'MX31855 CS', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2496':{'name':'MX31855 CS', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="28.5">
@@ -6079,23 +6106,23 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G134" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G134" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J134" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K134" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2528':{'name':'MX31855 CLK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2528':{'name':'MX31855 CLK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="28.5">
@@ -6113,23 +6140,23 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G135" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G135" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J135" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K135" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'2560':{'name':'MX31855 DO', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2560':{'name':'MX31855 DO', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6149,21 +6176,21 @@
       <c r="F136" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J136" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K136" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'96':{'name':'Button1i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'96':{'name':'Button1i', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6183,21 +6210,21 @@
       <c r="F137" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G137" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I137" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J137" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K137" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'97':{'name':'Button2i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'97':{'name':'Button2i', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6217,21 +6244,21 @@
       <c r="F138" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J138" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K138" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'98':{'name':'Button3i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'98':{'name':'Button3i', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6251,21 +6278,21 @@
       <c r="F139" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J139" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K139" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'99':{'name':'Button4i', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'99':{'name':'Button4i', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6285,21 +6312,21 @@
       <c r="F140" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I140" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J140" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K140" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'128':{'name':'Button1in', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'128':{'name':'Button1in', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6319,21 +6346,21 @@
       <c r="F141" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J141" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K141" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>'129':{'name':'Button2in', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'129':{'name':'Button2in', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6353,21 +6380,21 @@
       <c r="F142" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G142" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J142" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K142" s="3" t="str">
-        <f t="shared" ref="K142:K205" si="2">"'"&amp;B142&amp;"':{'name':'"&amp;C142&amp;"', 'std_type':item_types.index('"&amp;F142&amp;"'), 'feature':"&amp;G142&amp;", 'meta':"&amp;H142&amp;", 'tags':"&amp;I142&amp;" , 'icon':"&amp;J142&amp;"},"</f>
-        <v>'130':{'name':'Button3in', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <f t="shared" ref="K142:K205" si="2">"'"&amp;B142&amp;"':{'name':'"&amp;C142&amp;"', 'std_type':item_types.index('"&amp;F142&amp;"'), 'feature':"&amp;G142&amp;", 'meta':"&amp;H142&amp;", 'tags':"&amp;I142&amp;", 'icon':"&amp;J142&amp;"},"</f>
+        <v>'130':{'name':'Button3in', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6387,21 +6414,21 @@
       <c r="F143" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J143" s="20" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="K143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'131':{'name':'Button4in', 'std_type':item_types.index('Switch'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'131':{'name':'Button4in', 'std_type':item_types.index('Switch'), 'feature':'', 'meta':meta_switch, 'tags':tags_switch, 'icon':'switch'},</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -6419,23 +6446,23 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G144" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G144" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J144" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2592':{'name':'HLWBL SEL', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2592':{'name':'HLWBL SEL', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -6453,23 +6480,23 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G145" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G145" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J145" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2624':{'name':'HLWBL SELi', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2624':{'name':'HLWBL SELi', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6487,23 +6514,23 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G146" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G146" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I146" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J146" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2656':{'name':'HLWBL CF1', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2656':{'name':'HLWBL CF1', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="28.5">
@@ -6521,23 +6548,23 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G147" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G147" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J147" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2688':{'name':'HLW8012 CF', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2688':{'name':'HLW8012 CF', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="28.5">
@@ -6555,26 +6582,26 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G148" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G148" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I148" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J148" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2720':{'name':'BL0937 CF', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>'2720':{'name':'BL0937 CF', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="28.5">
       <c r="A149" s="25">
         <v>135</v>
       </c>
@@ -6589,26 +6616,26 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G149" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J149" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2752':{'name':'MCP39F5 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>'2752':{'name':'MCP39F5 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="28.5">
       <c r="A150" s="25">
         <v>136</v>
       </c>
@@ -6623,26 +6650,26 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G150" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G150" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J150" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2784':{'name':'MCP39F5 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>'2784':{'name':'MCP39F5 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="28.5">
       <c r="A151" s="25">
         <v>137</v>
       </c>
@@ -6657,23 +6684,23 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G151" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G151" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J151" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2816':{'name':'MCP39F5 Rst', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2816':{'name':'MCP39F5 Rst', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -6691,23 +6718,23 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G152" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G152" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J152" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2848':{'name':'PN532 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2848':{'name':'PN532 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6725,23 +6752,23 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G153" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G153" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J153" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2880':{'name':'PN532 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2880':{'name':'PN532 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -6759,23 +6786,23 @@
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G154" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G154" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J154" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2912':{'name':'SM16716 CLK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2912':{'name':'SM16716 CLK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -6793,23 +6820,23 @@
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G155" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G155" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J155" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2944':{'name':'SM16716 DAT', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2944':{'name':'SM16716 DAT', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -6827,23 +6854,23 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G156" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G156" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'2976':{'name':'SM16716 PWR', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'2976':{'name':'SM16716 PWR', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -6861,23 +6888,23 @@
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G157" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G157" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J157" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3008':{'name':'MY92x1 DI', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3008':{'name':'MY92x1 DI', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -6895,23 +6922,23 @@
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G158" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G158" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J158" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3040':{'name':'MY92x1 DCKI', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3040':{'name':'MY92x1 DCKI', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="28.5">
@@ -6929,23 +6956,23 @@
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G159" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G159" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J159" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3072':{'name':'CSE7766 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3072':{'name':'CSE7766 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="28.5">
@@ -6963,26 +6990,26 @@
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G160" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G160" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J160" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3104':{'name':'CSE7766 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>'3104':{'name':'CSE7766 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="28.5">
       <c r="A161" s="25">
         <v>147</v>
       </c>
@@ -6997,23 +7024,23 @@
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G161" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G161" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J161" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3136':{'name':'ALux IrRcv', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3136':{'name':'ALux IrRcv', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7031,23 +7058,23 @@
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G162" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G162" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J162" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3200':{'name':'Serial Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3200':{'name':'Serial Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7065,23 +7092,23 @@
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G163" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G163" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J163" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3232':{'name':'Serial Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3232':{'name':'Serial Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7099,23 +7126,23 @@
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G164" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G164" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J164" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3264':{'name':'Rotary1a', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3264':{'name':'Rotary1a', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7133,23 +7160,23 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G165" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G165" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J165" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3296':{'name':'Rotary1b', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3296':{'name':'Rotary1b', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7167,23 +7194,23 @@
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G166" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G166" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J166" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3265':{'name':'Rotary2a', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3265':{'name':'Rotary2a', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7201,23 +7228,23 @@
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G167" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G167" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J167" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3297':{'name':'Rotary2b', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3297':{'name':'Rotary2b', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7235,23 +7262,23 @@
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G168" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G168" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J168" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3392':{'name':'HRE CLOCK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3392':{'name':'HRE CLOCK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7269,23 +7296,23 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G169" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G169" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J169" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3424':{'name':'HRE DATA', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3424':{'name':'HRE DATA', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7303,23 +7330,23 @@
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G170" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G170" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J170" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K170" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3456':{'name':'ADE7953_IRQ', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3456':{'name':'ADE7953_IRQ', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7337,23 +7364,23 @@
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G171" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G171" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K171" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'544':{'name':'LedLink', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'544':{'name':'LedLink', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7371,23 +7398,23 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G172" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G172" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J172" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K172" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'576':{'name':'LedLinki', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'576':{'name':'LedLinki', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="28.5">
@@ -7405,23 +7432,23 @@
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G173" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G173" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J173" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K173" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3168':{'name':'ALux IrSel', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3168':{'name':'ALux IrSel', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -7439,23 +7466,23 @@
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G174" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G174" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J174" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K174" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'480':{'name':'Buzzer', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'480':{'name':'Buzzer', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -7473,23 +7500,23 @@
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G175" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G175" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J175" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K175" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'512':{'name':'Buzzeri', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'512':{'name':'Buzzeri', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -7507,23 +7534,23 @@
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G176" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G176" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J176" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K176" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'1024':{'name':'OLED Reset', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1024':{'name':'OLED Reset', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7541,23 +7568,23 @@
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G177" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G177" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J177" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K177" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3488':{'name':'SolaxX1 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3488':{'name':'SolaxX1 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -7575,23 +7602,23 @@
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G178" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G178" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J178" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K178" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3520':{'name':'SolaxX1 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3520':{'name':'SolaxX1 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -7609,23 +7636,23 @@
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G179" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G179" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J179" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K179" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3552':{'name':'Zigbee Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3552':{'name':'Zigbee Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -7643,23 +7670,23 @@
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G180" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G180" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J180" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K180" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3584':{'name':'Zigbee Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3584':{'name':'Zigbee Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7677,23 +7704,23 @@
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G181" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G181" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J181" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K181" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3616':{'name':'RDM6300 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3616':{'name':'RDM6300 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -7711,23 +7738,23 @@
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G182" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G182" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J182" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K182" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3648':{'name':'iBeacon Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3648':{'name':'iBeacon Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -7745,23 +7772,23 @@
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G183" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G183" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J183" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K183" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3680':{'name':'iBeacon Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3680':{'name':'iBeacon Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -7779,23 +7806,23 @@
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G184" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G184" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J184" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K184" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3712':{'name':'A4988 DIR', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3712':{'name':'A4988 DIR', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -7813,23 +7840,23 @@
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G185" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G185" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J185" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K185" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3744':{'name':'A4988 STP', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3744':{'name':'A4988 STP', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -7847,23 +7874,23 @@
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G186" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G186" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J186" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K186" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3776':{'name':'A4988 ENA', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3776':{'name':'A4988 ENA', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -7881,23 +7908,23 @@
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G187" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G187" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J187" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K187" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3808':{'name':'A4988 MS1', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3808':{'name':'A4988 MS1', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -7915,23 +7942,23 @@
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G188" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G188" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I188" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J188" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K188" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3809':{'name':'A4988 MS2', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3809':{'name':'A4988 MS2', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7949,23 +7976,23 @@
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G189" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G189" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I189" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J189" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K189" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3810':{'name':'A4988 MS3', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3810':{'name':'A4988 MS3', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7983,23 +8010,23 @@
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G190" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G190" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J190" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K190" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3904':{'name':'DDS238-2 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3904':{'name':'DDS238-2 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8017,23 +8044,23 @@
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G191" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G191" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I191" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J191" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K191" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3936':{'name':'DDS238-2 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3936':{'name':'DDS238-2 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8051,23 +8078,23 @@
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G192" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G192" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H192" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J192" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K192" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'3968':{'name':'DDSU666 Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'3968':{'name':'DDSU666 Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8085,23 +8112,23 @@
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G193" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G193" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I193" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J193" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K193" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4000':{'name':'DDSU666 Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4000':{'name':'DDSU666 Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8119,23 +8146,23 @@
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G194" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G194" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H194" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J194" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K194" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4032':{'name':'SM2135 CLK', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4032':{'name':'SM2135 CLK', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8153,23 +8180,23 @@
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G195" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G195" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H195" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I195" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J195" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K195" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4064':{'name':'SM2135 DAT', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4064':{'name':'SM2135 DAT', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8187,23 +8214,23 @@
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G196" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G196" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H196" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I196" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J196" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K196" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4096':{'name':'DeepSleep', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4096':{'name':'DeepSleep', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8221,23 +8248,23 @@
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G197" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G197" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I197" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K197" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4128':{'name':'EXS Enable', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4128':{'name':'EXS Enable', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8255,23 +8282,23 @@
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G198" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G198" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I198" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J198" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K198" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4160':{'name':'Slave TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4160':{'name':'Slave TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8289,23 +8316,23 @@
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G199" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G199" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J199" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K199" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4192':{'name':'Slave RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4192':{'name':'Slave RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8323,23 +8350,23 @@
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G200" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G200" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I200" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J200" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K200" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4224':{'name':'Slave RST', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4224':{'name':'Slave RST', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -8357,23 +8384,23 @@
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G201" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G201" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J201" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K201" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4256':{'name':'Slave RSTi', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4256':{'name':'Slave RSTi', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -8391,23 +8418,23 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G202" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G202" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I202" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J202" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K202" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4288':{'name':'HPMA RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4288':{'name':'HPMA RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -8425,23 +8452,23 @@
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G203" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G203" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I203" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K203" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4320':{'name':'HPMA TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4320':{'name':'HPMA TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -8459,23 +8486,23 @@
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G204" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G204" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I204" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J204" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K204" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4352':{'name':'GPS RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4352':{'name':'GPS RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -8493,26 +8520,26 @@
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G205" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G205" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I205" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J205" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K205" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>'4384':{'name':'GPS TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+        <v>'4384':{'name':'GPS TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="28.5">
       <c r="A206" s="25">
         <v>192</v>
       </c>
@@ -8527,23 +8554,23 @@
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G206" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G206" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I206" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J206" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K206" s="3" t="str">
-        <f t="shared" ref="K206:K230" si="3">"'"&amp;B206&amp;"':{'name':'"&amp;C206&amp;"', 'std_type':item_types.index('"&amp;F206&amp;"'), 'feature':"&amp;G206&amp;", 'meta':"&amp;H206&amp;", 'tags':"&amp;I206&amp;" , 'icon':"&amp;J206&amp;"},"</f>
-        <v>'1344':{'name':'DSB OUT', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <f t="shared" ref="K206:K230" si="3">"'"&amp;B206&amp;"':{'name':'"&amp;C206&amp;"', 'std_type':item_types.index('"&amp;F206&amp;"'), 'feature':"&amp;G206&amp;", 'meta':"&amp;H206&amp;", 'tags':"&amp;I206&amp;", 'icon':"&amp;J206&amp;"},"</f>
+        <v>'1344':{'name':'DSB OUT', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="28.5">
@@ -8561,23 +8588,23 @@
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G207" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G207" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I207" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J207" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K207" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'1280':{'name':'DHT11 OUT', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1280':{'name':'DHT11 OUT', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -8595,23 +8622,23 @@
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G208" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G208" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I208" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J208" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K208" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4416':{'name':'HM10 RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4416':{'name':'HM10 RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -8629,23 +8656,23 @@
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G209" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G209" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I209" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J209" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K209" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4448':{'name':'HM10 TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4448':{'name':'HM10 TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -8663,23 +8690,23 @@
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G210" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G210" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I210" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J210" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K210" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4480':{'name':'LE01MR RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4480':{'name':'LE01MR RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -8697,23 +8724,23 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G211" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G211" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I211" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J211" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K211" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4512':{'name':'LE01MR TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4512':{'name':'LE01MR TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -8731,23 +8758,23 @@
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G212" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G212" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I212" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J212" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K212" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4544':{'name':'CC1101 GDO0', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4544':{'name':'CC1101 GDO0', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -8765,23 +8792,23 @@
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G213" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G213" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I213" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J213" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K213" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4576':{'name':'CC1101 GDO2', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4576':{'name':'CC1101 GDO2', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="28.5">
@@ -8799,23 +8826,23 @@
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G214" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G214" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I214" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J214" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K214" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4608':{'name':'HRXL RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4608':{'name':'HRXL RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -8833,23 +8860,23 @@
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G215" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G215" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I215" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J215" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K215" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4640':{'name':'MOODL TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4640':{'name':'MOODL TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -8867,23 +8894,23 @@
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G216" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G216" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I216" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J216" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K216" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4672':{'name':'AS3935', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4672':{'name':'AS3935', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -8901,23 +8928,23 @@
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G217" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G217" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H217" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I217" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J217" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K217" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'1664':{'name':'PMS5003 TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'1664':{'name':'PMS5003 TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -8935,23 +8962,23 @@
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G218" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G218" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H218" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I218" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J218" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K218" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4928':{'name':'Boiler OT Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4928':{'name':'Boiler OT Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -8969,23 +8996,23 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G219" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G219" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H219" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J219" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K219" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4960':{'name':'Boiler OT Tx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4960':{'name':'Boiler OT Tx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="28.5">
@@ -9003,23 +9030,23 @@
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G220" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G220" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H220" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J220" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K220" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'4992':{'name':'Windmeter Speed', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'4992':{'name':'Windmeter Speed', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9037,23 +9064,23 @@
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G221" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G221" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I221" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J221" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K221" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5056':{'name':'BL0940 RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5056':{'name':'BL0940 RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9071,23 +9098,23 @@
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G222" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G222" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H222" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I222" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J222" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K222" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5088':{'name':'TCP TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5088':{'name':'TCP TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9105,23 +9132,23 @@
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G223" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G223" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J223" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K223" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5120':{'name':'TCP RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5120':{'name':'TCP RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9139,23 +9166,23 @@
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G224" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G224" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H224" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I224" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J224" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K224" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5152':{'name':'TELEINFO RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5152':{'name':'TELEINFO RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="28.5">
@@ -9173,23 +9200,23 @@
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G225" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G225" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H225" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I225" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J225" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K225" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5184':{'name':'TELEINFO Enable', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5184':{'name':'TELEINFO Enable', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9207,23 +9234,23 @@
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G226" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G226" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H226" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I226" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J226" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K226" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5216':{'name':'LMT01', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5216':{'name':'LMT01', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9241,23 +9268,23 @@
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G227" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G227" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I227" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J227" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K227" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5248':{'name':'IEM3000 TX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5248':{'name':'IEM3000 TX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9275,23 +9302,23 @@
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G228" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G228" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H228" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I228" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J228" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K228" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5280':{'name':'IEM3000 RX', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5280':{'name':'IEM3000 RX', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9309,23 +9336,23 @@
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G229" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G229" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I229" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J229" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K229" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5312':{'name':'Zigbee RST', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5312':{'name':'Zigbee RST', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -9343,23 +9370,23 @@
       </c>
       <c r="E230" s="5"/>
       <c r="F230" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="G230" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="G230" s="18" t="s">
         <v>368</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I230" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J230" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K230" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>'5344':{'name':'DYP Rx', 'std_type':item_types.index('Number'), 'feature':[], 'meta':'', 'tags':'' , 'icon':''},</v>
+        <v>'5344':{'name':'DYP Rx', 'std_type':item_types.index('Number'), 'feature':'', 'meta':'', 'tags':'', 'icon':''},</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -9482,7 +9509,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F85F6A4F-5FE1-4C3D-A122-B42B37A6C50D}">
           <x14:formula1>
             <xm:f>'item types'!$A$2:$A$25</xm:f>
@@ -9507,17 +9534,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -9527,37 +9554,37 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/tasmota_gpios.xlsx
+++ b/tasmota_gpios.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risshend\Documents\PyCharm\TasmoHAB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD481F9-F0AB-4117-9B06-ACD715E3C3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACA06B2-C46A-4EC2-97F5-B6B844ECC777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F3C50841-5268-435D-B49C-FDB083A34FAE}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18900" windowHeight="11055" xr2:uid="{F3C50841-5268-435D-B49C-FDB083A34FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1D03B4-8406-4F6C-82A5-D4DC8C59677A}">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E220" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E226" workbookViewId="0">
       <selection activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
@@ -9594,5 +9589,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>